--- a/biology/Zoologie/Dasyprocta_leporina/Dasyprocta_leporina.xlsx
+++ b/biology/Zoologie/Dasyprocta_leporina/Dasyprocta_leporina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Agouti doré
-L'Agouti doré[2],[3] (Dasyprocta leporina) est une espèce de rongeurs de la famille des Dasyproctidae. Souvent appelé plus simplement agouti[4],[5],[3], comme les espèces proches, cet animal vit principalement au Brésil, au Venezuela, au Guyana et en Guyane française. Il a également été introduit dans les îles des Antilles. Ce rongeur a une chair appréciée.
+L'Agouti doré, (Dasyprocta leporina) est une espèce de rongeurs de la famille des Dasyproctidae. Souvent appelé plus simplement agouti comme les espèces proches, cet animal vit principalement au Brésil, au Venezuela, au Guyana et en Guyane française. Il a également été introduit dans les îles des Antilles. Ce rongeur a une chair appréciée.
 L'espèce a été décrite pour la première fois en 1758 par le naturaliste suédois Carl von Linné (1707-1778).
 </t>
         </is>
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sont actuellement regroupées dans cette espèce Dasyprocta aguti (Îles Vierges), D. albida (Grenade, Saint-Vincent), D. antillensis (Sainte-Lucie, Martinique), D. fulvus (Sainte-Lucie, Martinique) et D. noblei (Dominique, Guadeloupe, Montserrat, Saint-Christophe-et-Niévès), qui désignaient autrefois des agoutis des Petites Antilles.
 L'agouti doré pèse en moyenne entre 3 et 6 kg, il mesure entre 48 et 64cm de long. Les femelles sont plus grandes que les mâles mais il n'y a pas d'autres dimorphismes sexuels. Cette espèce vit de 15 à 20 ans en captivité.
@@ -546,9 +560,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Mammal Species of the World (version 3, 2005)  (13 mai 2013)[6] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Mammal Species of the World (version 3, 2005)  (13 mai 2013) :
 sous-espèce Dasyprocta leporina albida
 sous-espèce Dasyprocta leporina cayana
 sous-espèce Dasyprocta leporina croconota
